--- a/ゲーム用企画書置き場/仕様書.xlsx
+++ b/ゲーム用企画書置き場/仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haya7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\タシヒキ\tashihiki\ゲーム用企画書置き場\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{557EECC3-1B6E-4653-838F-D6004E8B7B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F975378D-CD00-4928-AA0E-9E83D17C0E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D22EC1B-EB1B-41DA-A0E9-8C02BF207B32}"/>
   </bookViews>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>必要イラスト＆BGM</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>進行度（％）</t>
     <rPh sb="0" eb="3">
@@ -58,7 +51,40 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>この仕様書を変更する際は必ず連絡するように、また説明やこだわりがある場合は備考欄に記入してください。</t>
+    <t>(例）プレイキャラ</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要イラスト＆BGM&amp;プログラム</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（男）（187cm)(モヒカン）（剣を持たせる）（筋肉多め）</t>
+    <rPh sb="1" eb="2">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンニク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この仕様書を変更する際は必ず連絡するように、また説明やこだわりがある場合は備考欄に記入してください。備考記入がない場合は自由に書くか作ります。書ききれない＆要相談の場合はLINEにて連絡をください。</t>
     <rPh sb="2" eb="5">
       <t>シヨウショ</t>
     </rPh>
@@ -85,6 +111,33 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>キニュウ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>ビコウキニュウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ヨウソウダン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>レンラク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -93,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +171,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,56 +327,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - アクセント 5" xfId="2" builtinId="46"/>
     <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -622,72 +708,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.8984375" customWidth="1"/>
+    <col min="1" max="1" width="30.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.765625E-2" customWidth="1"/>
+    <col min="6" max="6" width="3.3984375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="2.8984375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ゲーム用企画書置き場/仕様書.xlsx
+++ b/ゲーム用企画書置き場/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\タシヒキ\tashihiki\ゲーム用企画書置き場\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F975378D-CD00-4928-AA0E-9E83D17C0E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C387A1-2879-4EBB-A594-1D915E0AE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D22EC1B-EB1B-41DA-A0E9-8C02BF207B32}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4D22EC1B-EB1B-41DA-A0E9-8C02BF207B32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>進行度（％）</t>
     <rPh sb="0" eb="3">
@@ -138,6 +138,60 @@
     </rPh>
     <rPh sb="91" eb="93">
       <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒク民（赤）</t>
+    <rPh sb="2" eb="3">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タス民（青）</t>
+    <rPh sb="2" eb="3">
+      <t>ミン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋が５～６：部屋の中にキャラを描く（１～５）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊＊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画書参考</t>
+    <rPh sb="0" eb="5">
+      <t>キカクショサンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -338,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,6 +405,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -375,14 +438,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -703,7 +760,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:N5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -731,63 +788,99 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="4">
         <v>0.25</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ゲーム用企画書置き場/仕様書.xlsx
+++ b/ゲーム用企画書置き場/仕様書.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\タシヒキ\tashihiki\ゲーム用企画書置き場\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\さかな\Desktop\3月\tashihiki\ゲーム用企画書置き場\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C387A1-2879-4EBB-A594-1D915E0AE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4D22EC1B-EB1B-41DA-A0E9-8C02BF207B32}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -178,10 +177,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>＊＊</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -192,6 +187,43 @@
     <t>企画書参考</t>
     <rPh sb="0" eb="5">
       <t>キカクショサンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>**顔は立体か平面か統一する、顔と体、別の色のパターン一枚でいいので用意お願いします。</t>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リッタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘイメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ネガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -199,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,7 +470,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,11 +788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5752246-2BB3-41D3-9260-A9C966E8B3E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -851,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
@@ -863,7 +895,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -872,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>

--- a/ゲーム用企画書置き場/仕様書.xlsx
+++ b/ゲーム用企画書置き場/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\さかな\Desktop\3月\tashihiki\ゲーム用企画書置き場\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\タシヒキ\tashihiki\ゲーム用企画書置き場\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B48A54-773A-45B6-971F-FDBBC08B4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>進行度（％）</t>
     <rPh sb="0" eb="3">
@@ -224,6 +225,13 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -231,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,6 +451,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -469,9 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -788,11 +796,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -820,15 +828,15 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -843,13 +851,13 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
@@ -858,19 +866,19 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
@@ -879,40 +887,40 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
         <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ゲーム用企画書置き場/仕様書.xlsx
+++ b/ゲーム用企画書置き場/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\タシヒキ\tashihiki\ゲーム用企画書置き場\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B48A54-773A-45B6-971F-FDBBC08B4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EEE148-F972-485A-846A-EAF00D7DBD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>進行度（％）</t>
     <rPh sb="0" eb="3">
@@ -162,22 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>部屋が５～６：部屋の中にキャラを描く（１～５）</t>
-    <rPh sb="0" eb="2">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -232,6 +216,19 @@
     <t>完成</t>
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋の中にキャラを描く（１～５）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -870,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
@@ -887,11 +884,11 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
-        <v>2</v>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
@@ -903,16 +900,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
